--- a/3d-Printing-Pricing-Formulas.xlsx
+++ b/3d-Printing-Pricing-Formulas.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://belgiumcampusacza-my.sharepoint.com/personal/578085_student_belgiumcampus_ac_za/Documents/Documents/GitHub/3d-Printer-Calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07cba2b03be8e518/Documents/GitHub/3d-Printer-Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC08100E-0BB6-4DD2-B702-1459A8C77A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{EC08100E-0BB6-4DD2-B702-1459A8C77A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C2BF73-A891-4C9E-8F2A-BEE33404391A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{588C2B6A-A245-4C21-AAEE-D1D16DE1A5DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{588C2B6A-A245-4C21-AAEE-D1D16DE1A5DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
     <sheet name="Formulae" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,8 +466,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3642,7 +3641,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4637,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0ABB3-A0B4-41DF-838A-5B5C52774329}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,7 +4990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717416DE-AD89-4BB9-8981-DFC1866B5D6E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>

--- a/3d-Printing-Pricing-Formulas.xlsx
+++ b/3d-Printing-Pricing-Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07cba2b03be8e518/Documents/GitHub/3d-Printer-Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{EC08100E-0BB6-4DD2-B702-1459A8C77A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C2BF73-A891-4C9E-8F2A-BEE33404391A}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{EC08100E-0BB6-4DD2-B702-1459A8C77A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AAEA1C7-8A06-4313-A9B6-4F81F2D87981}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{588C2B6A-A245-4C21-AAEE-D1D16DE1A5DF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{588C2B6A-A245-4C21-AAEE-D1D16DE1A5DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>equals</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Y/N?</t>
@@ -155,6 +152,9 @@
   <si>
     <t>Overhead Costs (rent, insurance,etc.)</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
@@ -162,10 +162,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="&quot;R&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;R&quot;#,##0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -293,7 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,22 +304,21 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -4317,6 +4316,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4636,18 +4639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0ABB3-A0B4-41DF-838A-5B5C52774329}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -4657,323 +4660,512 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="13">
         <f>D5+(D5*B5)</f>
         <v>1.5191999999999997</v>
       </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="14">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11">
         <v>300</v>
       </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11">
         <v>1000</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="13">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11">
         <v>4.22</v>
       </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="15">
+        <v>23</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <f>B4*(B2/B3)</f>
         <v>1.2659999999999998</v>
       </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="14">
         <f>D8*B9</f>
         <v>4.7638888888888884</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <f>D8*60</f>
+        <v>11.433333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11">
         <v>7.9398148148148145E-3</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12">
         <f>(HOUR(B8))+(MINUTE(B8)/60)+(SECOND(B8)/60/60)</f>
         <v>0.19055555555555553</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
+      <c r="E8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="17">
+        <f>F7/60</f>
+        <v>0.19055555555555553</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11">
         <v>25</v>
       </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f>D14+(D14*B14)</f>
         <v>7.6298444444444419E-2</v>
       </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="16">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11">
         <v>350</v>
       </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="14">
+        <v>28</v>
+      </c>
+      <c r="B13" s="11">
         <v>0.88</v>
       </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="15">
+        <v>29</v>
+      </c>
+      <c r="B14" s="20">
         <v>0.3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="19">
         <f>(B12/1000)*D8*B13</f>
         <v>5.8691111111111097E-2</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <f>D17*60</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="13">
         <f>D17*B18</f>
         <v>16</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="8">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12">
         <f>(HOUR(B17))+(MINUTE(B17)/60)+(SECOND(B17)/60/60)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="14">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
         <v>480</v>
       </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="13">
         <f>((B21+B22+B24)/(B23*24*365))</f>
         <v>0.50228310502283102</v>
       </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>12000</v>
       </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="14">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11">
         <v>5000</v>
       </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="14">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11">
         <v>5000</v>
       </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="22">
+        <v>37</v>
+      </c>
+      <c r="B26" s="15">
         <v>0</v>
       </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="22">
+        <v>35</v>
+      </c>
+      <c r="B28" s="15">
         <v>0</v>
       </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="20">
-        <f>(D5/B31)*B32</f>
-        <v>0.3</v>
-      </c>
+      <c r="B30" s="13">
+        <f>(B1/B31)*B32</f>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="18">
+        <v>36</v>
+      </c>
+      <c r="B31" s="12">
         <f>B4</f>
         <v>4.22</v>
       </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="C34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="19">
+        <v>32</v>
+      </c>
+      <c r="B35" s="22">
         <f>IF(C34="Y", 20/100, IF(C34="N", 0, "N/A"))</f>
         <v>0.2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="12">
         <f>(B1+B7+B11)</f>
         <v>6.3593873333333324</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="16">
         <f>(B1+B7+B11)+((B1+B7+B11)*B35)</f>
         <v>7.6312647999999985</v>
       </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="C37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="22">
         <f>IF(C37="Y", 15/100, IF(C37="N", 0, "N/A"))</f>
         <v>0.15</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="12">
         <f>($B$1+$B$7+$B$11+$B$16+$B$20+$B$26+$B$28+$B$30+$F$35)</f>
-        <v>30.792935238356158</v>
-      </c>
+        <v>30.85293523835616</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="12">
-        <f>D38+(D38*B38%)</f>
-        <v>30.839124641213694</v>
-      </c>
+      <c r="B41" s="10">
+        <f>D38+(D38*B38)</f>
+        <v>35.480875524109585</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
@@ -4990,7 +5182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717416DE-AD89-4BB9-8981-DFC1866B5D6E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
